--- a/public/gad/master.xlsx
+++ b/public/gad/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\node-multiple-websites\public\gad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BAD072-C0C1-498C-976E-7EF77514326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7776850-C8A1-4767-BE03-98479DD886A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>W11559742</t>
-  </si>
-  <si>
     <t>Connector</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>E-19</t>
+  </si>
+  <si>
+    <t>X00280J8BZ</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,25 +605,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -632,25 +632,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -659,25 +659,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -686,25 +686,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -713,25 +713,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -740,28 +740,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -769,25 +769,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -796,25 +796,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -823,25 +823,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -850,25 +850,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -877,25 +877,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -904,25 +904,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -931,25 +931,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -958,25 +958,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -985,23 +985,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1010,23 +1010,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1035,23 +1035,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1060,22 +1060,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1083,26 +1083,27 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>